--- a/excel/language.xlsx
+++ b/excel/language.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wong/mini/sample/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mini\sample\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC7C4C-2776-EC4C-87D2-C7EDEA3E6BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BB700B-A763-4ACA-A75C-BDE087BC255C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3220" windowWidth="21600" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="3210" windowWidth="25545" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#多语言" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>属性类型</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排行榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,6 +81,21 @@
   </si>
   <si>
     <t>控制台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>MENU_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -492,18 +503,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="2"/>
-    <col min="2" max="2" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="8.625" style="2"/>
+    <col min="2" max="2" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -531,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -545,104 +556,110 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1">
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1">
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="6"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" s="3" customFormat="1">
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" s="3" customFormat="1">
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1">
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
